--- a/Uloha2/02_Kompresor.xlsx
+++ b/Uloha2/02_Kompresor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\-=SKOLA=-\Vyuka\NKZT\Laboratore\!2023-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44AC8B-CACB-4703-A9C2-2A3DEA7C86BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{AF44AC8B-CACB-4703-A9C2-2A3DEA7C86BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3F6262-8598-4BA3-A696-9FE9BFDA4C10}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1) RMS" sheetId="5" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4) Knee'!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5) Attack a Release'!$A$1:$H$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,27 +46,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
-  <si>
-    <t>hard knee</t>
-  </si>
-  <si>
-    <t>soft knee</t>
-  </si>
-  <si>
-    <t>HARD KNEE</t>
-  </si>
-  <si>
-    <t>SOFT KNEE</t>
-  </si>
-  <si>
-    <t>strmost dB/ms</t>
-  </si>
-  <si>
-    <t>mV/dB</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
   <si>
     <r>
       <t>U</t>
@@ -133,6 +123,15 @@
       </rPr>
       <t xml:space="preserve"> [dBu]</t>
     </r>
+  </si>
+  <si>
+    <t>Konstanta RMS detektoru:</t>
+  </si>
+  <si>
+    <t>mV/dB</t>
+  </si>
+  <si>
+    <t>Pot. Threshold</t>
   </si>
   <si>
     <r>
@@ -237,82 +236,6 @@
       </rPr>
       <t xml:space="preserve"> [dBu]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>outPP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> [mV]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>outRMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> [dBu]</t>
-    </r>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> [ms]</t>
-    </r>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Pot. Threshold</t>
   </si>
   <si>
     <t>Pot. Ratio</t>
@@ -422,6 +345,73 @@
     </r>
   </si>
   <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>hard knee</t>
+  </si>
+  <si>
+    <t>soft knee</t>
+  </si>
+  <si>
+    <t>HARD KNEE</t>
+  </si>
+  <si>
+    <t>SOFT KNEE</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>outPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> [mV]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>outRMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> [dBu]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -499,10 +489,31 @@
     <t>Odpovídající změna zesílení [dB]</t>
   </si>
   <si>
-    <t>Konstanta RMS detektoru:</t>
+    <t>Attack</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> [ms]</t>
+    </r>
   </si>
   <si>
     <t>strmost V/s</t>
+  </si>
+  <si>
+    <t>strmost dB/ms</t>
+  </si>
+  <si>
+    <t>Release</t>
   </si>
 </sst>
 </file>
@@ -512,7 +523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,32 +844,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -889,23 +893,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1010,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1095,6 +1096,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1218,7 +1240,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1256,7 +1278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503501712"/>
@@ -1363,7 +1385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1401,7 +1423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503504208"/>
@@ -1449,7 +1471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1529,7 +1551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1610,19 +1632,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-54.145322999269169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-43.768925223199773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-27.445033139782197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-10.423813400023526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0418164283226972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1761,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1777,7 +1799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1456289120"/>
@@ -1878,7 +1900,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1916,7 +1938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1456292032"/>
@@ -1964,7 +1986,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2040,7 +2062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2132,22 +2154,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0015877994125479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9217407684819574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.06923311575272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12.043542336074099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>116.16250450476865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,22 +2253,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0015877994125479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8860986168297968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.5730845835210889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.4894364139917613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>38.253353444549667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>106.42408703205825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,7 +2385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2401,7 +2423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1924273488"/>
@@ -2505,7 +2527,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2543,7 +2565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1924273072"/>
@@ -2596,7 +2618,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2633,7 +2655,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2713,7 +2735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2826,43 +2848,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-37.388857889682129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-34.495691077732879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-31.546132239602155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-28.644991733287902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-28.644991733287902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-28.644991733287902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-28.752892371022028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-28.752892371022028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-28.752892371022028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-28.752892371022028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-28.862150285052071</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-28.862150285052071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-29.084877607411261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,43 +2989,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-37.388857889682129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-34.495691077732879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-31.697194997411074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-30.423813400023526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-30.164513856736175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-29.912731310575765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-29.912731310575765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-29.668042182235528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-29.430057716241379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-29.313466843026902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-29.198420265245069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-29.084877607411261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-29.084877607411261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3165,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3181,7 +3203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1480221424"/>
@@ -3306,7 +3328,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3344,7 +3366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1527008544"/>
@@ -3397,7 +3419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3434,7 +3456,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3523,7 +3545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3605,6 +3627,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3677,6 +3708,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1230</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3802,7 +3842,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3840,7 +3880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1752345648"/>
@@ -3946,7 +3986,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3984,7 +4024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1752345232"/>
@@ -4037,7 +4077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4074,7 +4114,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4163,7 +4203,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4246,13 +4286,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.59899428516403019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.1325605385841191E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.8816394007080347E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,13 +4367,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.9025385245535302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.1287837713102665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0940450619555528E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4454,7 +4494,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4492,7 +4532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1752345648"/>
@@ -4597,7 +4637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="cs-CZ"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4635,7 +4675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1752345232"/>
@@ -4687,7 +4727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4724,7 +4764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8160,15 +8200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:colOff>422827</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>230256</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>144376</xdr:rowOff>
+      <xdr:colOff>296931</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8323,7 +8363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8622,113 +8662,155 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>9</v>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:6" ht="18.75" thickBot="1">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f t="shared" ref="A3:A7" si="0">B3/2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
+      <c r="C3" s="9">
+        <v>-211</v>
+      </c>
+      <c r="D3" s="10">
         <f>20*LOG10((B3/(2*SQRT(2)))/774.8)</f>
         <v>-59.966238494416771</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B4" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="19">
-        <f t="shared" ref="D4:D9" si="0">20*LOG10((B4/(2*SQRT(2)))/774.8)</f>
+      <c r="C4" s="4">
+        <v>-139</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D9" si="1">20*LOG10((B4/(2*SQRT(2)))/774.8)</f>
         <v>-48.024307058488532</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>17.350000000000001</v>
+      </c>
+      <c r="B5" s="5">
         <v>34.700000000000003</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="19">
+      <c r="C5" s="4">
+        <v>-53</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="1"/>
+        <v>-36.00810261504342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>-36.00810261504342</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="5">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="1"/>
+        <v>-24.017110382836169</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>138</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="19">
+    <row r="7" spans="1:6">
+      <c r="A7">
         <f t="shared" si="0"/>
-        <v>-24.017110382836169</v>
+        <v>275</v>
+      </c>
+      <c r="B7" s="5">
+        <v>550</v>
+      </c>
+      <c r="C7" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>-12.007438320976025</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>550</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19">
-        <f t="shared" si="0"/>
-        <v>-12.007438320976025</v>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f>B8/2</f>
+        <v>1095</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2190</v>
+      </c>
+      <c r="C8" s="4">
+        <v>160.6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>-5.8098140585324809E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>2190</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="19">
-        <f t="shared" si="0"/>
-        <v>-5.8098140585324809E-3</v>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f>B9/2</f>
+        <v>2185</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4370</v>
+      </c>
+      <c r="C9" s="4">
+        <v>199.5</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>5.9949366285475367</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>4370</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="19">
-        <f t="shared" si="0"/>
-        <v>5.9949366285475367</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="36">
+    <row r="11" spans="1:6">
+      <c r="B11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="30">
         <f>(C9-C3)/(D9-D3)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
+        <v>6.2233578955309561</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8748,77 +8830,87 @@
   </sheetPr>
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>9</v>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4" ht="18.75" thickBot="1">
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+    <row r="3" spans="2:4">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="14" t="e">
+      <c r="C3" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="D3" s="11">
         <f>20*LOG10((C3/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
+        <v>-54.145322999269169</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+    <row r="4" spans="2:4">
+      <c r="B4" s="5">
         <v>2.5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="43" t="e">
+      <c r="C4" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D4" s="36">
         <f t="shared" ref="D4:D7" si="0">20*LOG10((C4/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
+        <v>-43.768925223199773</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+    <row r="5" spans="2:4">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="43" t="e">
+      <c r="C5" s="6">
+        <v>93</v>
+      </c>
+      <c r="D5" s="36">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-27.445033139782197</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+    <row r="6" spans="2:4">
+      <c r="B6" s="5">
         <v>7.5</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="43" t="e">
+      <c r="C6" s="4">
+        <v>660</v>
+      </c>
+      <c r="D6" s="36">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>-10.423813400023526</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:4">
+      <c r="B7" s="5">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="43" t="e">
+      <c r="C7" s="4">
+        <v>3490</v>
+      </c>
+      <c r="D7" s="36">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>4.0418164283226972</v>
       </c>
     </row>
   </sheetData>
@@ -8833,600 +8925,584 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="18.75" thickBot="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="31"/>
+      <c r="D2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="26"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="6">
+    <row r="3" spans="2:11">
+      <c r="C3" s="29"/>
+      <c r="D3" s="5">
         <v>1020</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4100</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F17" si="0">20*LOG10((D3/(2*SQRT(2)))/774.8)</f>
         <v>-6.6426886756225496</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G17" si="1">20*LOG10((E3/(2*SQRT(2)))/774.8)</f>
         <v>5.44098502353381</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="32"/>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>6</v>
+    <row r="5" spans="2:11" ht="18.75" thickBot="1">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="41">
         <v>0</v>
       </c>
-      <c r="C6" s="49">
+      <c r="D6" s="31">
+        <v>930</v>
+      </c>
+      <c r="E6" s="31">
+        <v>3730</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.4450331397821969</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6194845253128518</v>
+      </c>
+      <c r="H6" s="13">
+        <f>IF((1/((G6-F6)/($G$3-$F$3)))&lt;0,1000,1/((G6-F6)/($G$3-$F$3)))</f>
+        <v>1.0015877994125479</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="4">
+        <v>930</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3730</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>-7.4450331397821969</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6194845253128518</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:H17" si="2">IF((1/((G7-F7)/($G$3-$F$3)))&lt;0,1000,1/((G7-F7)/($G$3-$F$3)))</f>
+        <v>1.0015877994125479</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>320</v>
+      </c>
+      <c r="E8" s="4">
+        <v>660</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>-16.711692544462778</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="1"/>
+        <v>-10.423813400023526</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.9217407684819574</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="4">
+        <v>330</v>
+      </c>
+      <c r="E9" s="4">
+        <v>690</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>-16.444413313303151</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="1"/>
+        <v>-10.037710296115794</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8860986168297968</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="41">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>133</v>
+      </c>
+      <c r="E10" s="4">
+        <v>175</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>-24.337659291519181</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="1"/>
+        <v>-21.953931137135008</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>5.06923311575272</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="4">
+        <v>135</v>
+      </c>
+      <c r="E11" s="4">
+        <v>183</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>-24.208016740960776</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
+        <v>-21.565670316252309</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>4.5730845835210889</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="41">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>98</v>
+      </c>
+      <c r="E12" s="4">
+        <v>110</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>-26.990170597011005</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="1"/>
+        <v>-25.9868384076964</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="2"/>
+        <v>12.043542336074099</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="4">
+        <v>95</v>
+      </c>
+      <c r="E13" s="4">
+        <v>110</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>-27.260220005083944</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="1"/>
+        <v>-25.9868384076964</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>9.4894364139917613</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="41">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>83</v>
+      </c>
+      <c r="E14" s="4">
+        <v>84</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>-28.433130263339422</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>-28.329106389623266</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>116.16250450476865</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="4">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4">
+        <v>84</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>-28.644991733287902</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="1"/>
+        <v>-28.329106389623266</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="2"/>
+        <v>38.253353444549667</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="41">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4">
+        <v>77</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>-28.752892371022028</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="1"/>
+        <v>-29.084877607411261</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="4">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4">
+        <v>77</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>-29.198420265245069</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="1"/>
+        <v>-29.084877607411261</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="2"/>
+        <v>106.42408703205825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37">
         <v>0</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" s="16" t="e">
-        <f>IF((1/((G6-F6)/($G$3-$F$3)))&lt;0,1000,1/((G6-F6)/($G$3-$F$3)))</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="E82" s="38">
+        <f>H6</f>
+        <v>1.0015877994125479</v>
+      </c>
+      <c r="F82" s="38">
+        <f>H7</f>
+        <v>1.0015877994125479</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="J82" s="37"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" s="19" t="e">
-        <f t="shared" ref="H7:H17" si="2">IF((1/((G7-F7)/($G$3-$F$3)))&lt;0,1000,1/((G7-F7)/($G$3-$F$3)))</f>
-        <v>#NUM!</v>
-      </c>
+    <row r="83" spans="1:10">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37">
+        <v>2</v>
+      </c>
+      <c r="E83" s="38">
+        <f>H8</f>
+        <v>1.9217407684819574</v>
+      </c>
+      <c r="F83" s="38">
+        <f>H9</f>
+        <v>1.8860986168297968</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="J83" s="37"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="49">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="84" spans="1:10">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37">
+        <v>5</v>
+      </c>
+      <c r="E84" s="38">
+        <f>H10</f>
+        <v>5.06923311575272</v>
+      </c>
+      <c r="F84" s="38">
+        <f>H11</f>
+        <v>4.5730845835210889</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="J84" s="37"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="85" spans="1:10">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37">
+        <v>8</v>
+      </c>
+      <c r="E85" s="38">
+        <f>H12</f>
+        <v>12.043542336074099</v>
+      </c>
+      <c r="F85" s="38">
+        <f>H13</f>
+        <v>9.4894364139917613</v>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="J85" s="37"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="49">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="86" spans="1:10">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37">
+        <v>9</v>
+      </c>
+      <c r="E86" s="38">
+        <f>H14</f>
+        <v>116.16250450476865</v>
+      </c>
+      <c r="F86" s="38">
+        <f>H15</f>
+        <v>38.253353444549667</v>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="J86" s="37"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="87" spans="1:10">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37">
+        <v>10</v>
+      </c>
+      <c r="E87" s="38">
+        <f>H16</f>
+        <v>1000</v>
+      </c>
+      <c r="F87" s="38">
+        <f>H17</f>
+        <v>106.42408703205825</v>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="J87" s="37"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="49">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="88" spans="1:10">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="J88" s="37"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="89" spans="1:10">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="J89" s="37"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="49">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="90" spans="1:10">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="J90" s="37"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="91" spans="1:10">
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="49">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="92" spans="1:10">
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" s="38" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H17" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+    <row r="93" spans="1:10">
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44">
-        <v>0</v>
-      </c>
-      <c r="E82" s="46" t="e">
-        <f>H6</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F82" s="46" t="e">
-        <f>H7</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="J82" s="44"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44">
-        <v>2</v>
-      </c>
-      <c r="E83" s="46" t="e">
-        <f>H8</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F83" s="46" t="e">
-        <f>H9</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="J83" s="44"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44">
-        <v>5</v>
-      </c>
-      <c r="E84" s="46" t="e">
-        <f>H10</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F84" s="46" t="e">
-        <f>H11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="J84" s="44"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44">
-        <v>8</v>
-      </c>
-      <c r="E85" s="46" t="e">
-        <f>H12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F85" s="46" t="e">
-        <f>H13</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="J85" s="44"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44">
-        <v>9</v>
-      </c>
-      <c r="E86" s="46" t="e">
-        <f>H14</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F86" s="46" t="e">
-        <f>H15</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="J86" s="44"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44">
-        <v>10</v>
-      </c>
-      <c r="E87" s="46" t="e">
-        <f>H16</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F87" s="46" t="e">
-        <f>H17</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="J87" s="44"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="J88" s="44"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="J89" s="44"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="J90" s="44"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+    <row r="94" spans="1:10">
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9450,11 +9526,11 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" customWidth="1"/>
@@ -9463,295 +9539,347 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" thickBot="1">
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>3</v>
+      <c r="F3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+    <row r="4" spans="2:9">
+      <c r="B4" s="33">
         <v>32</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42">
+      <c r="C4" s="34">
+        <v>29.6</v>
+      </c>
+      <c r="D4" s="34">
+        <v>29.6</v>
+      </c>
+      <c r="E4" s="35">
         <f t="shared" ref="E4:E16" si="0">20*LOG10((B4/(2*SQRT(2)))/774.8)</f>
         <v>-36.711692544462778</v>
       </c>
-      <c r="F4" s="42" t="e">
+      <c r="F4" s="35">
         <f t="shared" ref="F4:F15" si="1">20*LOG10((C4/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" s="42" t="e">
+        <v>-37.388857889682129</v>
+      </c>
+      <c r="G4" s="35">
         <f t="shared" ref="G4:G15" si="2">20*LOG10((D4/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
+        <v>-37.388857889682129</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+    <row r="5" spans="2:9">
+      <c r="B5" s="7">
         <v>45</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="19">
+      <c r="C5" s="9">
+        <v>41.3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41.3</v>
+      </c>
+      <c r="E5" s="15">
         <f t="shared" ref="E5" si="3">20*LOG10((B5/(2*SQRT(2)))/774.8)</f>
         <v>-33.750441835354025</v>
       </c>
-      <c r="F5" s="19" t="e">
+      <c r="F5" s="15">
         <f t="shared" ref="F5" si="4">20*LOG10((C5/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" s="19" t="e">
+        <v>-34.495691077732879</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" ref="G5" si="5">20*LOG10((D5/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
+        <v>-34.495691077732879</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+    <row r="6" spans="2:9">
+      <c r="B6" s="7">
         <v>63.4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="19">
+      <c r="C6" s="9">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9">
+        <v>57</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>-30.772906953226244</v>
       </c>
-      <c r="F6" s="19" t="e">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="19" t="e">
+        <v>-31.546132239602155</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-31.697194997411074</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
         <v>90</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="19">
+      <c r="C7" s="4">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>66</v>
+      </c>
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>-27.729841922074403</v>
       </c>
-      <c r="F7" s="19" t="e">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" s="19" t="e">
+        <v>-28.644991733287902</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-30.423813400023526</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
         <v>114</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="19">
+      <c r="C8" s="4">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>-25.676595084131449</v>
       </c>
-      <c r="F8" s="19" t="e">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" s="19" t="e">
+        <v>-28.644991733287902</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-30.164513856736175</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="9" spans="2:9">
+      <c r="B9" s="5">
         <v>128</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="19">
+      <c r="C9" s="4">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4">
+        <v>70</v>
+      </c>
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>-24.670492717903532</v>
       </c>
-      <c r="F9" s="19" t="e">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="19" t="e">
+        <v>-28.644991733287902</v>
+      </c>
+      <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.912731310575765</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="2:9">
+      <c r="B10" s="5">
         <v>162</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="19">
+      <c r="C10" s="4">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4">
+        <v>70</v>
+      </c>
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>-22.624391820008285</v>
       </c>
-      <c r="F10" s="19" t="e">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" s="19" t="e">
+        <v>-28.752892371022028</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.912731310575765</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+    <row r="11" spans="2:9">
+      <c r="B11" s="5">
         <v>228</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="19">
+      <c r="C11" s="4">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4">
+        <v>72</v>
+      </c>
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>-19.655995170851824</v>
       </c>
-      <c r="F11" s="19" t="e">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" s="19" t="e">
+        <v>-28.752892371022028</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.668042182235528</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+    <row r="12" spans="2:9">
+      <c r="B12" s="5">
         <v>361</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="19">
+      <c r="C12" s="4">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4">
+        <v>74</v>
+      </c>
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>-15.664548072747742</v>
       </c>
-      <c r="F12" s="19" t="e">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="19" t="e">
+        <v>-28.752892371022028</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.430057716241379</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+    <row r="13" spans="2:9">
+      <c r="B13" s="5">
         <v>509</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="19">
+      <c r="C13" s="4">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4">
+        <v>75</v>
+      </c>
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>-12.680336464125725</v>
       </c>
-      <c r="F13" s="19" t="e">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" s="19" t="e">
+        <v>-28.752892371022028</v>
+      </c>
+      <c r="G13" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.313466843026902</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
         <v>1020</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="19">
+      <c r="C14" s="4">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4">
+        <v>76</v>
+      </c>
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>-6.6426886756225496</v>
       </c>
-      <c r="F14" s="19" t="e">
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" s="19" t="e">
+        <v>-28.862150285052071</v>
+      </c>
+      <c r="G14" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.198420265245069</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
         <v>2050</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="19">
+      <c r="C15" s="4">
+        <v>79</v>
+      </c>
+      <c r="D15" s="4">
+        <v>77</v>
+      </c>
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>-0.57961488974581443</v>
       </c>
-      <c r="F15" s="19" t="e">
+      <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="19" t="e">
+        <v>-28.862150285052071</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>-29.084877607411261</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
         <v>4080</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="19">
+      <c r="C16" s="4">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4">
+        <v>77</v>
+      </c>
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>5.3985111509366979</v>
       </c>
-      <c r="F16" s="19" t="e">
+      <c r="F16" s="15">
         <f t="shared" ref="F16" si="6">20*LOG10((C16/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" s="19" t="e">
+        <v>-29.084877607411261</v>
+      </c>
+      <c r="G16" s="15">
         <f t="shared" ref="G16" si="7">20*LOG10((D16/(2*SQRT(2)))/774.8)</f>
-        <v>#NUM!</v>
+        <v>-29.084877607411261</v>
       </c>
     </row>
   </sheetData>
@@ -9771,11 +9899,11 @@
   </sheetPr>
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
@@ -9784,153 +9912,169 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+    <row r="1" spans="2:11">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:11" ht="18">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="4">
+        <v>174.6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="D3" s="43">
+        <f>0.95*(B3-C3)/('1) RMS'!E11)</f>
+        <v>25.756754262053299</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="G6" s="25" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="51" t="e">
-        <f>0.95*(B3-C3)/('1) RMS'!E11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+    <row r="7" spans="2:11">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="F7" s="15">
+        <f>0.95*($B$3-$C$3)/E7</f>
+        <v>24.286893939393941</v>
+      </c>
+      <c r="G7" s="15">
+        <f>$D$3/(E7)</f>
+        <v>3.9025385245535302</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="30" t="s">
+    <row r="8" spans="2:11">
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>200</v>
+      </c>
+      <c r="F8" s="15">
+        <f>0.95*($B$3-$C$3)/E8</f>
+        <v>0.8014675</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8" si="0">$D$3/(E8)</f>
+        <v>0.1287837713102665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1230</v>
+      </c>
+      <c r="F9" s="15">
+        <f>0.95*($B$3-$C$3)/E9</f>
+        <v>0.13031991869918699</v>
+      </c>
+      <c r="G9" s="15">
+        <f>$D$3/(E9)</f>
+        <v>2.0940450619555528E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+      <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>4</v>
+      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="11">
+    <row r="12" spans="2:11">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="19" t="e">
-        <f>0.95*($B$3-$C$3)/E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="19" t="e">
-        <f>$D$3/(E7)</f>
-        <v>#DIV/0!</v>
+      <c r="E12" s="4">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15">
+        <f>0.95*($B$3-$C$3)/E12</f>
+        <v>3.7277558139534883</v>
+      </c>
+      <c r="G12" s="15">
+        <f>$D$3/(E12)</f>
+        <v>0.59899428516403019</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="11">
+    <row r="13" spans="2:11">
+      <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19" t="e">
-        <f>0.95*($B$3-$C$3)/E8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="19" t="e">
-        <f t="shared" ref="G8:G9" si="0">$D$3/(E8)</f>
-        <v>#DIV/0!</v>
+      <c r="E13" s="4">
+        <v>420</v>
+      </c>
+      <c r="F13" s="15">
+        <f>0.95*($B$3-$C$3)/E13</f>
+        <v>0.38165119047619045</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" ref="G13" si="1">$D$3/(E13)</f>
+        <v>6.1325605385841191E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="11">
+    <row r="14" spans="2:11">
+      <c r="D14" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="19" t="e">
-        <f>0.95*($B$3-$C$3)/E9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="19" t="e">
-        <f>0.95*($B$3-$C$3)/E12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="19" t="e">
-        <f>$D$3/(E12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="11">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="19" t="e">
-        <f>0.95*($B$3-$C$3)/E13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="19" t="e">
-        <f t="shared" ref="G13:G14" si="1">$D$3/(E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="11">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="19" t="e">
+      <c r="E14" s="4">
+        <v>2900</v>
+      </c>
+      <c r="F14" s="15">
         <f>0.95*($B$3-$C$3)/E14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.5273620689655169E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <f>$D$3/(E14)</f>
+        <v>8.8816394007080347E-3</v>
       </c>
     </row>
   </sheetData>
